--- a/phptravels-test/testData.xlsx
+++ b/phptravels-test/testData.xlsx
@@ -517,20 +517,20 @@
       <c r="B2" t="str">
         <v>Thảo</v>
       </c>
-      <c r="C2" t="str">
-        <v>Viet Nam +84</v>
+      <c r="C2">
+        <v>84</v>
       </c>
       <c r="D2">
         <v>1223456789</v>
       </c>
       <c r="E2" t="str">
-        <v>hovanthao1996cs@@gmail.com</v>
+        <v>hovanthao6356ff5@gmail.com</v>
       </c>
       <c r="F2" t="str">
         <v>pass1234</v>
       </c>
       <c r="G2" t="str">
-        <v>Failed</v>
+        <v>Passed</v>
       </c>
     </row>
     <row r="3">
@@ -540,20 +540,20 @@
       <c r="B3" t="str">
         <v>Thanh</v>
       </c>
-      <c r="C3" t="str">
-        <v>Japan</v>
+      <c r="C3">
+        <v>93</v>
       </c>
       <c r="D3">
         <v>2987654321</v>
       </c>
       <c r="E3" t="str">
-        <v>janesmith@example.com</v>
+        <v>janedsdsmrrithff36565@example.com</v>
       </c>
       <c r="F3" t="str">
         <v>pass4562</v>
       </c>
       <c r="G3" t="str">
-        <v>Failed</v>
+        <v>Passed</v>
       </c>
     </row>
     <row r="4">
@@ -563,20 +563,20 @@
       <c r="B4" t="str">
         <v>Đường</v>
       </c>
-      <c r="C4" t="str">
-        <v>Japan</v>
+      <c r="C4">
+        <v>43</v>
       </c>
       <c r="D4">
         <v>3123984765</v>
       </c>
       <c r="E4" t="str">
-        <v>user1@example.com</v>
+        <v>userssrr6d56ff1@example.com</v>
       </c>
       <c r="F4" t="str">
         <v>pass7893</v>
       </c>
       <c r="G4" t="str">
-        <v>Failed</v>
+        <v>Passed</v>
       </c>
     </row>
     <row r="5">
@@ -586,14 +586,14 @@
       <c r="B5" t="str">
         <v>Bạt</v>
       </c>
-      <c r="C5" t="str">
-        <v>Japan</v>
+      <c r="C5">
+        <v>61</v>
       </c>
       <c r="D5">
         <v>4982361749</v>
       </c>
       <c r="E5" t="str">
-        <v>user2@example.com</v>
+        <v>usesrrsr65h3ff2example.com</v>
       </c>
       <c r="F5" t="str">
         <v>pass3214</v>
@@ -609,14 +609,14 @@
       <c r="B6" t="str">
         <v>Si</v>
       </c>
-      <c r="C6" t="str">
-        <v>Failed</v>
+      <c r="C6">
+        <v>54</v>
       </c>
       <c r="D6">
         <v>5123987345</v>
       </c>
       <c r="E6" t="str">
-        <v>user3@example.com</v>
+        <v>usesssrrrr3ffuf00@@example.com</v>
       </c>
       <c r="F6" t="str">
         <v>pass6545</v>
@@ -626,6 +626,13 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:G6"/>
